--- a/data/trans_orig/P14B35-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B35-Edad-trans_orig.xlsx
@@ -1345,19 +1345,19 @@
         <v>8993</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4021</v>
+        <v>4080</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15963</v>
+        <v>16340</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02090288389766207</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009345879119318836</v>
+        <v>0.009483449405594013</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0371039770441141</v>
+        <v>0.03798026436887522</v>
       </c>
     </row>
     <row r="5">
@@ -1374,19 +1374,19 @@
         <v>421237</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>414267</v>
+        <v>413890</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>426209</v>
+        <v>426150</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.979097116102338</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9628960229558859</v>
+        <v>0.9620197356311243</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9906541208806812</v>
+        <v>0.990516550594406</v>
       </c>
     </row>
     <row r="6">
@@ -1436,19 +1436,19 @@
         <v>14602</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8116</v>
+        <v>7840</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23441</v>
+        <v>22842</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.023927048139288</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01329861310966434</v>
+        <v>0.01284651832990645</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03841248361322618</v>
+        <v>0.03742969409261628</v>
       </c>
     </row>
     <row r="8">
@@ -1465,19 +1465,19 @@
         <v>595653</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>586814</v>
+        <v>587413</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>602139</v>
+        <v>602415</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.976072951860712</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9615875163867738</v>
+        <v>0.9625703059073828</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9867013868903356</v>
+        <v>0.9871534816700933</v>
       </c>
     </row>
     <row r="9">
@@ -1527,19 +1527,19 @@
         <v>16839</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9932</v>
+        <v>9990</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27109</v>
+        <v>27172</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02376423172708792</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01401624964952161</v>
+        <v>0.01409853229521204</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03825881397802727</v>
+        <v>0.03834695111905047</v>
       </c>
     </row>
     <row r="11">
@@ -1556,19 +1556,19 @@
         <v>691738</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>681468</v>
+        <v>681405</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>698645</v>
+        <v>698587</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.976235768272912</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9617411860219722</v>
+        <v>0.9616530488809496</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9859837503504784</v>
+        <v>0.9859014677047879</v>
       </c>
     </row>
     <row r="12">
@@ -1618,19 +1618,19 @@
         <v>3273</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9617</v>
+        <v>8819</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0053278301714599</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001719956517304771</v>
+        <v>0.00173402880504679</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01565617410045465</v>
+        <v>0.01435755874187379</v>
       </c>
     </row>
     <row r="14">
@@ -1647,19 +1647,19 @@
         <v>610991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>604647</v>
+        <v>605445</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>613207</v>
+        <v>613199</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9946721698285401</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9843438258995454</v>
+        <v>0.9856424412581263</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9982800434826953</v>
+        <v>0.9982659711949532</v>
       </c>
     </row>
     <row r="15">
@@ -1934,19 +1934,19 @@
         <v>43706</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32841</v>
+        <v>32748</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57872</v>
+        <v>59250</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01229738052485601</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009240369375185556</v>
+        <v>0.009214256397767618</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01628327980634115</v>
+        <v>0.01667096135905205</v>
       </c>
     </row>
     <row r="26">
@@ -1963,19 +1963,19 @@
         <v>3510395</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3496229</v>
+        <v>3494851</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3521260</v>
+        <v>3521353</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.987702619475144</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.983716720193659</v>
+        <v>0.983329038640948</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9907596306248145</v>
+        <v>0.9907857436022324</v>
       </c>
     </row>
     <row r="27">
@@ -2146,19 +2146,19 @@
         <v>5837</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1996</v>
+        <v>2031</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11697</v>
+        <v>12730</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01474841942511173</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005043591916124888</v>
+        <v>0.005130838833351511</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02955673960125209</v>
+        <v>0.03216518683499235</v>
       </c>
     </row>
     <row r="5">
@@ -2175,19 +2175,19 @@
         <v>389918</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>384058</v>
+        <v>383025</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>393759</v>
+        <v>393724</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9852515805748883</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.970443260398748</v>
+        <v>0.9678348131650075</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9949564080838752</v>
+        <v>0.9948691611666485</v>
       </c>
     </row>
     <row r="6">
@@ -2237,19 +2237,19 @@
         <v>6559</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13121</v>
+        <v>12944</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01163856351535463</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004957327454147659</v>
+        <v>0.004959722523623204</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02328296003681925</v>
+        <v>0.02296848661129039</v>
       </c>
     </row>
     <row r="8">
@@ -2266,19 +2266,19 @@
         <v>556985</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>550423</v>
+        <v>550600</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>560750</v>
+        <v>560749</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9883614364846454</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9767170399631808</v>
+        <v>0.9770315133887097</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9950426725458523</v>
+        <v>0.9950402774763768</v>
       </c>
     </row>
     <row r="9">
@@ -2328,19 +2328,19 @@
         <v>2935</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8139</v>
+        <v>8208</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004437792145284847</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001249386085064165</v>
+        <v>0.001232432172918605</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01230594309245221</v>
+        <v>0.01241070072817473</v>
       </c>
     </row>
     <row r="11">
@@ -2357,19 +2357,19 @@
         <v>658451</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>653247</v>
+        <v>653178</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>660560</v>
+        <v>660571</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9955622078547152</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9876940569075476</v>
+        <v>0.9875892992718251</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9987506139149358</v>
+        <v>0.9987675678270813</v>
       </c>
     </row>
     <row r="12">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6392</v>
+        <v>6860</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003182624680079479</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009847838246396514</v>
+        <v>0.01056874490431451</v>
       </c>
     </row>
     <row r="14">
@@ -2448,7 +2448,7 @@
         <v>647011</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>642685</v>
+        <v>642217</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>649077</v>
@@ -2457,7 +2457,7 @@
         <v>0.9968173753199205</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9901521617536034</v>
+        <v>0.9894312550956854</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2735,19 +2735,19 @@
         <v>17396</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10552</v>
+        <v>11213</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26051</v>
+        <v>27400</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004907958235385753</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002976919334980936</v>
+        <v>0.003163506210374268</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.007349480247965187</v>
+        <v>0.007730235636675035</v>
       </c>
     </row>
     <row r="26">
@@ -2764,19 +2764,19 @@
         <v>3527146</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3518491</v>
+        <v>3517142</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3533990</v>
+        <v>3533329</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9950920417646143</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9926505197520347</v>
+        <v>0.9922697643633248</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.997023080665019</v>
+        <v>0.9968364937896256</v>
       </c>
     </row>
     <row r="27">
@@ -2947,19 +2947,19 @@
         <v>29198</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16957</v>
+        <v>17976</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45762</v>
+        <v>47612</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08054453213619282</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04677502904974466</v>
+        <v>0.04958780642433867</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1262359919410669</v>
+        <v>0.1313388608406333</v>
       </c>
     </row>
     <row r="5">
@@ -2976,19 +2976,19 @@
         <v>333314</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>316750</v>
+        <v>314900</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>345555</v>
+        <v>344536</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9194554678638071</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8737640080589333</v>
+        <v>0.8686611391593667</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9532249709502554</v>
+        <v>0.9504121935756613</v>
       </c>
     </row>
     <row r="6">
@@ -3038,19 +3038,19 @@
         <v>37264</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27069</v>
+        <v>25957</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51960</v>
+        <v>52041</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07489374311846955</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0544050486373169</v>
+        <v>0.05216953556926211</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1044308646630393</v>
+        <v>0.1045928974724666</v>
       </c>
     </row>
     <row r="8">
@@ -3067,19 +3067,19 @@
         <v>460289</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>445593</v>
+        <v>445512</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>470484</v>
+        <v>471596</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9251062568815304</v>
+        <v>0.9251062568815305</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8955691353369608</v>
+        <v>0.8954071025275333</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.945594951362683</v>
+        <v>0.9478304644307378</v>
       </c>
     </row>
     <row r="9">
@@ -3129,19 +3129,19 @@
         <v>32266</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23792</v>
+        <v>23951</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43953</v>
+        <v>42119</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05218925508471677</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03848254272167512</v>
+        <v>0.03874041847613432</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07109235799411615</v>
+        <v>0.06812514785397511</v>
       </c>
     </row>
     <row r="11">
@@ -3158,19 +3158,19 @@
         <v>585988</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>574301</v>
+        <v>576135</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>594462</v>
+        <v>594303</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9478107449152833</v>
+        <v>0.9478107449152835</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9289076420058838</v>
+        <v>0.9318748521460249</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.961517457278325</v>
+        <v>0.9612595815238657</v>
       </c>
     </row>
     <row r="12">
@@ -3220,19 +3220,19 @@
         <v>19511</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13118</v>
+        <v>13159</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27254</v>
+        <v>27241</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02654107929361987</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01784445591670661</v>
+        <v>0.01790015747041473</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03707301527840807</v>
+        <v>0.03705556687011227</v>
       </c>
     </row>
     <row r="14">
@@ -3249,19 +3249,19 @@
         <v>715631</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>707888</v>
+        <v>707901</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>722024</v>
+        <v>721983</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.97345892070638</v>
+        <v>0.9734589207063804</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9629269847215921</v>
+        <v>0.9629444331298876</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9821555440832935</v>
+        <v>0.9820998425295849</v>
       </c>
     </row>
     <row r="15">
@@ -3311,19 +3311,19 @@
         <v>1923</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5425</v>
+        <v>4670</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.003169858050267538</v>
+        <v>0.003169858050267539</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0009215408138241218</v>
+        <v>0.000905441163460539</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008941416168106802</v>
+        <v>0.007696533519386061</v>
       </c>
     </row>
     <row r="17">
@@ -3340,19 +3340,19 @@
         <v>604842</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>601340</v>
+        <v>602095</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>606206</v>
+        <v>606216</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9968301419497322</v>
+        <v>0.9968301419497324</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9910585838318937</v>
+        <v>0.9923034664806141</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9990784591861758</v>
+        <v>0.9990945588365394</v>
       </c>
     </row>
     <row r="18">
@@ -3552,19 +3552,19 @@
         <v>120163</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>97746</v>
+        <v>98943</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>146697</v>
+        <v>146726</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03227815156190884</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02625662940003529</v>
+        <v>0.0265779752464241</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03940580678621171</v>
+        <v>0.03941339884312332</v>
       </c>
     </row>
     <row r="26">
@@ -3581,19 +3581,19 @@
         <v>3602572</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3576038</v>
+        <v>3576009</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3624989</v>
+        <v>3623792</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9677218484380912</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9605941932137884</v>
+        <v>0.9605866011568763</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9737433705999647</v>
+        <v>0.9734220247535756</v>
       </c>
     </row>
     <row r="27">
